--- a/output/targets_test.xlsx
+++ b/output/targets_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,6 +1269,414 @@
         <v>1</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>162.65</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>146.72</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>75.91</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>28.28</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>277.46</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>79.03</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>178.12</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>215.57</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>128.27</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>124.44</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>177.72</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>513.63</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>191.63</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>216.57</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>143.19</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>191.65</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>581.02</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>409</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>379.6</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>434</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>171.21</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>210.53</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>218.14</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>122.48</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>79.89</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>243.03</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>171.26</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>278.6</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>125.05</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>262.54</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>220.91</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>61.04</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>169.35</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>102.72</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>239.76</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>297.49</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>517.97</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>484.4</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
